--- a/fiels/shoraka/حساب و کتاب بیرون.xlsx
+++ b/fiels/shoraka/حساب و کتاب بیرون.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Dropbox\shoraka\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\exel_010\fiels\shoraka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57D1AEA-ACC0-4962-8BEE-B1054E62D154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DEB4962-34CA-45F9-93CC-7208859E8358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="56">
   <si>
     <t xml:space="preserve">طرف حساب </t>
   </si>
@@ -40,12 +41,6 @@
   </si>
   <si>
     <t>مبلغ</t>
-  </si>
-  <si>
-    <t>به صباحی -&gt; زنونه نیم بگ</t>
-  </si>
-  <si>
-    <t>رمضون -&gt; مردانه-بنگال</t>
   </si>
   <si>
     <t>n-abi-general</t>
@@ -111,10 +106,94 @@
     <t>es-zeytooni-2*2</t>
   </si>
   <si>
-    <t>رمضون -&gt; جا حساب</t>
+    <t>es-zeytooni-2*3</t>
   </si>
   <si>
-    <t>es-zeytooni-2*3</t>
+    <t>239.2/267.4</t>
+  </si>
+  <si>
+    <t>پرداخت نقدی</t>
+  </si>
+  <si>
+    <t>کی؟؟؟</t>
+  </si>
+  <si>
+    <t>کی ؟؟؟</t>
+  </si>
+  <si>
+    <t>رمضان</t>
+  </si>
+  <si>
+    <t>es-nes-2*2</t>
+  </si>
+  <si>
+    <t>es-khak-2*2</t>
+  </si>
+  <si>
+    <t>es-sor-2*2</t>
+  </si>
+  <si>
+    <t>es-zogal-2*2</t>
+  </si>
+  <si>
+    <t>es-zey-2*2</t>
+  </si>
+  <si>
+    <t>es-shokolati-2*2</t>
+  </si>
+  <si>
+    <t>es-keremSir-2*2</t>
+  </si>
+  <si>
+    <t>ماروچی/ برگشتی</t>
+  </si>
+  <si>
+    <t>بنگال کمری</t>
+  </si>
+  <si>
+    <t>قد 90 زنونه</t>
+  </si>
+  <si>
+    <t>نیل کمری</t>
+  </si>
+  <si>
+    <t>بنگال اسلش</t>
+  </si>
+  <si>
+    <t>نیل کارگو</t>
+  </si>
+  <si>
+    <t>بنگال چریکی کارگو</t>
+  </si>
+  <si>
+    <t>مرجوعی به رمضون</t>
+  </si>
+  <si>
+    <t>تحویل به رمضون</t>
+  </si>
+  <si>
+    <t>تحویل به صباحی</t>
+  </si>
+  <si>
+    <t>مرجوعی به احمدیان</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لی </t>
+  </si>
+  <si>
+    <t>بنگال کمری پاکتی</t>
+  </si>
+  <si>
+    <t>بنگال مشکی</t>
+  </si>
+  <si>
+    <t>بنگال کرم</t>
+  </si>
+  <si>
+    <t>چرخ</t>
+  </si>
+  <si>
+    <t>AS</t>
   </si>
 </sst>
 </file>
@@ -162,7 +241,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -184,6 +263,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -215,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -262,23 +347,52 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -560,16 +674,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL438"/>
+  <dimension ref="A1:AK438"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="C1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="V1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="AF8" sqref="AF8:AG8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5546875" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
     <col min="4" max="4" width="1.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" customWidth="1"/>
@@ -584,439 +698,741 @@
     <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.33203125" customWidth="1"/>
     <col min="16" max="16" width="2.109375" customWidth="1"/>
+    <col min="17" max="17" width="5.6640625" customWidth="1"/>
+    <col min="18" max="18" width="11.44140625" customWidth="1"/>
+    <col min="19" max="19" width="2.5546875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="5.5546875" customWidth="1"/>
+    <col min="21" max="21" width="14.6640625" customWidth="1"/>
+    <col min="22" max="22" width="2.5546875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="14.44140625" style="28" customWidth="1"/>
+    <col min="24" max="24" width="5.33203125" customWidth="1"/>
+    <col min="25" max="25" width="2.5546875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="14.44140625" style="28" customWidth="1"/>
+    <col min="27" max="27" width="5.33203125" customWidth="1"/>
+    <col min="28" max="28" width="2.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="18" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" s="18" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21">
+      <c r="B1" s="34">
         <v>45413</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="E1" s="21">
+      <c r="C1" s="34"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="34">
         <v>45444</v>
       </c>
-      <c r="F1" s="21"/>
-      <c r="H1" s="21">
+      <c r="F1" s="34"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="34">
         <v>45458</v>
       </c>
-      <c r="I1" s="21"/>
-      <c r="K1" s="21">
+      <c r="I1" s="34"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="34">
         <v>45536</v>
       </c>
-      <c r="L1" s="21"/>
-      <c r="N1" s="21">
+      <c r="L1" s="34"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="34">
         <v>45545</v>
       </c>
-      <c r="O1" s="21"/>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="O1" s="34"/>
+      <c r="Q1" s="34">
+        <v>45563</v>
+      </c>
+      <c r="R1" s="34"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="34">
+        <v>45578</v>
+      </c>
+      <c r="U1" s="34"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="34">
+        <v>45962</v>
+      </c>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="34">
+        <v>45962</v>
+      </c>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="34">
+        <v>45967</v>
+      </c>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="34">
+        <v>45967</v>
+      </c>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="21"/>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="20"/>
+      <c r="C2" s="33"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="20"/>
+      <c r="F2" s="33"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="20"/>
+      <c r="I2" s="33"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="20"/>
+      <c r="L2" s="33"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="20" t="s">
+      <c r="N2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="20"/>
+      <c r="O2" s="33"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="9"/>
-      <c r="AG2" s="9"/>
-      <c r="AH2" s="9"/>
+      <c r="Q2" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="33"/>
+      <c r="T2" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="U2" s="33"/>
+      <c r="W2" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="X2" s="33"/>
+      <c r="Z2" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA2" s="33"/>
+      <c r="AC2" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="1"/>
       <c r="AI2" s="9"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
-      <c r="AL2" s="9"/>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="20"/>
+      <c r="B3" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="33"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="25"/>
+      <c r="E3" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="35"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="25"/>
-      <c r="K3" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="25"/>
-      <c r="N3" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" s="25"/>
+      <c r="H3" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="35"/>
+      <c r="K3" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="35"/>
+      <c r="N3" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="O3" s="35"/>
       <c r="P3" s="1"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="9"/>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="9"/>
-      <c r="AE3" s="9"/>
-      <c r="AF3" s="9"/>
-      <c r="AG3" s="9"/>
-      <c r="AH3" s="9"/>
+      <c r="Q3" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="R3" s="35"/>
+      <c r="T3" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="U3" s="35"/>
+      <c r="W3" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="X3" s="35"/>
+      <c r="Z3" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA3" s="35"/>
+      <c r="AC3" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD3" s="35"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG3" s="35"/>
+      <c r="AH3" s="1"/>
       <c r="AI3" s="9"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
-      <c r="AL3" s="9"/>
-    </row>
-    <row r="4" spans="1:38" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="38">
         <v>117195</v>
       </c>
-      <c r="C4" s="22"/>
+      <c r="C4" s="38"/>
       <c r="D4" s="12"/>
-      <c r="E4" s="24">
+      <c r="E4" s="36">
         <v>7742</v>
       </c>
-      <c r="F4" s="24"/>
+      <c r="F4" s="36"/>
       <c r="G4" s="13"/>
-      <c r="H4" s="24">
+      <c r="H4" s="36">
         <v>81823</v>
       </c>
-      <c r="I4" s="24"/>
+      <c r="I4" s="36"/>
       <c r="J4" s="14"/>
-      <c r="K4" s="24">
+      <c r="K4" s="36">
         <v>13279</v>
       </c>
-      <c r="L4" s="24"/>
+      <c r="L4" s="36"/>
       <c r="M4" s="14"/>
-      <c r="N4" s="24">
+      <c r="N4" s="36">
         <v>22319.5</v>
       </c>
-      <c r="O4" s="24"/>
+      <c r="O4" s="36"/>
       <c r="P4" s="14"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="15"/>
-      <c r="AA4" s="15"/>
-      <c r="AB4" s="15"/>
-      <c r="AC4" s="15"/>
-      <c r="AD4" s="15"/>
-      <c r="AE4" s="15"/>
-      <c r="AF4" s="15"/>
-      <c r="AG4" s="15"/>
-      <c r="AH4" s="15"/>
+      <c r="Q4" s="36">
+        <v>52197</v>
+      </c>
+      <c r="R4" s="36"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="36">
+        <v>19127.5</v>
+      </c>
+      <c r="U4" s="36"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="36"/>
+      <c r="AA4" s="36"/>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="36"/>
+      <c r="AD4" s="36"/>
+      <c r="AE4" s="14"/>
+      <c r="AF4" s="36"/>
+      <c r="AG4" s="36"/>
+      <c r="AH4" s="14"/>
       <c r="AI4" s="15"/>
-      <c r="AJ4" s="15"/>
-    </row>
-    <row r="5" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="W5" s="26"/>
+      <c r="Z5" s="26"/>
+      <c r="AC5" s="26"/>
+      <c r="AF5" s="26"/>
+    </row>
+    <row r="6" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="10">
         <v>28.1</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="10">
         <v>7.1</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="10">
         <v>28.1</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="10">
         <v>16.5</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M6" s="6"/>
       <c r="N6" s="10">
         <v>18.8</v>
       </c>
       <c r="O6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="10">
+        <v>12.45</v>
+      </c>
+      <c r="R6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6" s="6"/>
+      <c r="T6" s="10">
+        <v>24.2</v>
+      </c>
+      <c r="U6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="V6" s="6"/>
+      <c r="W6" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="X6" s="10">
         <v>26</v>
       </c>
-      <c r="P6" s="6"/>
-    </row>
-    <row r="7" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA6" s="10">
+        <v>61</v>
+      </c>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD6" s="10">
+        <v>10.96</v>
+      </c>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG6" s="10">
+        <v>17.7</v>
+      </c>
+      <c r="AH6" s="6"/>
+    </row>
+    <row r="7" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="10">
         <v>27.7</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="10">
         <v>7.7</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="10">
         <v>28.5</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="10">
         <v>18.5</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M7" s="6"/>
       <c r="N7" s="10">
         <v>17.899999999999999</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P7" s="6"/>
-    </row>
-    <row r="8" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q7" s="10">
+        <v>7.19</v>
+      </c>
+      <c r="R7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="S7" s="6"/>
+      <c r="T7" s="10">
+        <v>22.81</v>
+      </c>
+      <c r="U7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="V7" s="6"/>
+      <c r="W7" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="X7" s="10">
+        <v>7</v>
+      </c>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA7" s="10">
+        <v>21</v>
+      </c>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD7" s="10">
+        <v>10.75</v>
+      </c>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG7" s="32"/>
+      <c r="AH7" s="6"/>
+    </row>
+    <row r="8" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="10">
         <v>31</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="10">
         <v>9.3000000000000007</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="10">
         <v>29.7</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="10">
         <v>19.2</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M8" s="6"/>
       <c r="N8" s="10">
         <v>21.8</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P8" s="6"/>
-    </row>
-    <row r="9" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q8" s="10">
+        <v>5.74</v>
+      </c>
+      <c r="R8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="S8" s="6"/>
+      <c r="T8" s="10">
+        <v>29.5</v>
+      </c>
+      <c r="U8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="V8" s="6"/>
+      <c r="W8" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="X8" s="10">
+        <v>10</v>
+      </c>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA8" s="32"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD8" s="10">
+        <v>20.7</v>
+      </c>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG8" s="33"/>
+      <c r="AH8" s="6"/>
+    </row>
+    <row r="9" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="10">
         <v>30</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="10">
         <v>7.5</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="10">
         <v>26.4</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J9" s="6"/>
-      <c r="K9" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" s="23"/>
+      <c r="K9" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="32"/>
       <c r="M9" s="6"/>
       <c r="N9" s="10">
         <v>11.4</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P9" s="6"/>
-    </row>
-    <row r="10" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q9" s="10">
+        <v>7.24</v>
+      </c>
+      <c r="R9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="S9" s="6"/>
+      <c r="T9" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="U9" s="32"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="X9" s="10">
+        <v>23</v>
+      </c>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD9" s="32"/>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="33">
+        <v>250</v>
+      </c>
+      <c r="AG9" s="33"/>
+      <c r="AH9" s="6"/>
+    </row>
+    <row r="10" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="10">
         <v>20</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="23"/>
+      <c r="E10" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="32"/>
       <c r="G10" s="6"/>
       <c r="H10" s="10">
         <v>27.1</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J10" s="6"/>
-      <c r="K10" s="20">
+      <c r="K10" s="33">
         <v>54.2</v>
       </c>
-      <c r="L10" s="20"/>
+      <c r="L10" s="33"/>
       <c r="M10" s="6"/>
       <c r="N10" s="10">
         <v>21.2</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="P10" s="6"/>
-    </row>
-    <row r="11" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q10" s="10">
+        <v>6.16</v>
+      </c>
+      <c r="R10" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="S10" s="6"/>
+      <c r="T10" s="33">
+        <v>76.510000000000005</v>
+      </c>
+      <c r="U10" s="33"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="X10" s="10">
+        <v>2</v>
+      </c>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="27"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="6"/>
+      <c r="AF10" s="6"/>
+      <c r="AG10" s="6"/>
+      <c r="AH10" s="6"/>
+    </row>
+    <row r="11" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="10">
         <v>27</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D11" s="6"/>
-      <c r="E11" s="20">
+      <c r="E11" s="33">
         <v>31.6</v>
       </c>
-      <c r="F11" s="20"/>
+      <c r="F11" s="33"/>
       <c r="G11" s="6"/>
       <c r="H11" s="10">
         <v>17.2</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J11" s="6"/>
-      <c r="K11" s="20">
+      <c r="K11" s="33">
         <v>245</v>
       </c>
-      <c r="L11" s="20"/>
+      <c r="L11" s="33"/>
       <c r="M11" s="6"/>
-      <c r="N11" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="O11" s="23"/>
+      <c r="N11" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11" s="32"/>
       <c r="P11" s="6"/>
-    </row>
-    <row r="12" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q11" s="10">
+        <v>6.35</v>
+      </c>
+      <c r="R11" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="S11" s="6"/>
+      <c r="T11" s="33">
+        <v>250</v>
+      </c>
+      <c r="U11" s="33"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="X11" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="29"/>
+      <c r="AA11" s="30"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="33">
+        <v>250</v>
+      </c>
+      <c r="AD11" s="33"/>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="6"/>
+      <c r="AG11" s="6"/>
+      <c r="AH11" s="6"/>
+    </row>
+    <row r="12" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="10">
         <v>10</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D12" s="6"/>
-      <c r="E12" s="20">
+      <c r="E12" s="33">
         <v>245</v>
       </c>
-      <c r="F12" s="20"/>
+      <c r="F12" s="33"/>
       <c r="G12" s="6"/>
       <c r="H12" s="10">
         <v>26.6</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
-      <c r="N12" s="20">
+      <c r="N12" s="33">
         <v>91.1</v>
       </c>
-      <c r="O12" s="20"/>
+      <c r="O12" s="33"/>
       <c r="P12" s="6"/>
-    </row>
-    <row r="13" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q12" s="10">
+        <v>13.62</v>
+      </c>
+      <c r="R12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="X12" s="32"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="32"/>
+      <c r="AA12" s="32"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="6"/>
+      <c r="AG12" s="6"/>
+      <c r="AH12" s="6"/>
+    </row>
+    <row r="13" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="10">
         <v>25.65</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -1026,25 +1442,47 @@
         <v>27.2</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
-      <c r="N13" s="20">
+      <c r="N13" s="33">
         <v>245</v>
       </c>
-      <c r="O13" s="20"/>
+      <c r="O13" s="33"/>
       <c r="P13" s="6"/>
-    </row>
-    <row r="14" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q13" s="10">
+        <v>12.4</v>
+      </c>
+      <c r="R13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="27"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="29"/>
+      <c r="AA13" s="30"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="6"/>
+      <c r="AG13" s="6"/>
+      <c r="AH13" s="6"/>
+    </row>
+    <row r="14" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="10">
         <v>27</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -1054,7 +1492,7 @@
         <v>28.4</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
@@ -1063,21 +1501,43 @@
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
-    </row>
-    <row r="15" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q14" s="10">
+        <v>7</v>
+      </c>
+      <c r="R14" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="27"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="29"/>
+      <c r="AA14" s="30"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6"/>
+      <c r="AF14" s="6"/>
+      <c r="AG14" s="6"/>
+      <c r="AH14" s="6"/>
+    </row>
+    <row r="15" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="10">
         <v>27.2</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
@@ -1085,14 +1545,30 @@
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
-    </row>
-    <row r="16" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q15" s="10">
+        <v>9.34</v>
+      </c>
+      <c r="R15" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+    </row>
+    <row r="16" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="10">
         <v>26.5</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -1102,7 +1578,7 @@
         <v>20.5</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
@@ -1111,14 +1587,30 @@
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
-    </row>
-    <row r="17" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q16" s="10">
+        <v>6.93</v>
+      </c>
+      <c r="R16" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+    </row>
+    <row r="17" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="10">
         <v>28.2</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -1128,7 +1620,7 @@
         <v>19.8</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
@@ -1137,14 +1629,30 @@
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
-    </row>
-    <row r="18" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q17" s="10">
+        <v>6.61</v>
+      </c>
+      <c r="R17" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="26"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="26"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+    </row>
+    <row r="18" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="10">
         <v>27.2</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -1154,7 +1662,7 @@
         <v>20.3</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
@@ -1163,23 +1671,39 @@
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
-    </row>
-    <row r="19" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q18" s="10">
+        <v>8.1</v>
+      </c>
+      <c r="R18" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="26"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="26"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+    </row>
+    <row r="19" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="10">
         <v>26.5</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="I19" s="23"/>
+      <c r="H19" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="32"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
@@ -1187,23 +1711,39 @@
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
-    </row>
-    <row r="20" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q19" s="10">
+        <v>8.6</v>
+      </c>
+      <c r="R19" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="26"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="26"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
+    </row>
+    <row r="20" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="10">
         <v>26.7</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="20">
-        <v>239.2</v>
-      </c>
-      <c r="I20" s="20"/>
+      <c r="H20" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" s="33"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
@@ -1211,23 +1751,39 @@
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
-    </row>
-    <row r="21" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q20" s="10">
+        <v>7.86</v>
+      </c>
+      <c r="R20" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="26"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="26"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6"/>
+    </row>
+    <row r="21" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="10">
         <v>31</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
-      <c r="H21" s="20">
+      <c r="H21" s="33">
         <v>280</v>
       </c>
-      <c r="I21" s="20"/>
+      <c r="I21" s="33"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
@@ -1235,23 +1791,39 @@
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
-    </row>
-    <row r="22" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q21" s="10">
+        <v>8.24</v>
+      </c>
+      <c r="R21" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="26"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="26"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6"/>
+    </row>
+    <row r="22" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="10">
         <v>31</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
-      <c r="H22" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="I22" s="23"/>
+      <c r="H22" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="32"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
@@ -1259,23 +1831,39 @@
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
-    </row>
-    <row r="23" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q22" s="10">
+        <v>6</v>
+      </c>
+      <c r="R22" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="26"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="26"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="6"/>
+    </row>
+    <row r="23" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="11">
         <v>12</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
-      <c r="H23" s="20">
+      <c r="H23" s="33">
         <v>60.6</v>
       </c>
-      <c r="I23" s="20"/>
+      <c r="I23" s="33"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
@@ -1283,8 +1871,24 @@
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
-    </row>
-    <row r="24" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q23" s="10">
+        <v>13.83</v>
+      </c>
+      <c r="R23" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="26"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="26"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="6"/>
+    </row>
+    <row r="24" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -1292,10 +1896,10 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="20">
+      <c r="H24" s="33">
         <v>245</v>
       </c>
-      <c r="I24" s="20"/>
+      <c r="I24" s="33"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
@@ -1303,21 +1907,37 @@
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
-    </row>
-    <row r="25" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q24" s="10">
+        <v>8.74</v>
+      </c>
+      <c r="R24" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="26"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="26"/>
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="6"/>
+    </row>
+    <row r="25" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
-      <c r="B25" s="20">
+      <c r="B25" s="33">
         <v>450.75</v>
       </c>
-      <c r="C25" s="20"/>
+      <c r="C25" s="33"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
-      <c r="H25" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="I25" s="23"/>
+      <c r="H25" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" s="32"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
@@ -1325,21 +1945,37 @@
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
-    </row>
-    <row r="26" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q25" s="10">
+        <v>7.68</v>
+      </c>
+      <c r="R25" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="26"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="26"/>
+      <c r="AA25" s="6"/>
+      <c r="AB25" s="6"/>
+    </row>
+    <row r="26" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
-      <c r="B26" s="20">
+      <c r="B26" s="33">
         <v>260</v>
       </c>
-      <c r="C26" s="20"/>
+      <c r="C26" s="33"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="20">
+      <c r="H26" s="33">
         <v>66.975999999999999</v>
       </c>
-      <c r="I26" s="20"/>
+      <c r="I26" s="33"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
@@ -1347,8 +1983,24 @@
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
-    </row>
-    <row r="27" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q26" s="10">
+        <v>9</v>
+      </c>
+      <c r="R26" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="26"/>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="26"/>
+      <c r="AA26" s="6"/>
+      <c r="AB26" s="6"/>
+    </row>
+    <row r="27" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -1356,10 +2008,10 @@
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
-      <c r="H27" s="20">
+      <c r="H27" s="33">
         <v>14.847</v>
       </c>
-      <c r="I27" s="20"/>
+      <c r="I27" s="33"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
@@ -1367,8 +2019,24 @@
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q27" s="10">
+        <v>12.54</v>
+      </c>
+      <c r="R27" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="26"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="26"/>
+      <c r="AA27" s="6"/>
+      <c r="AB27" s="6"/>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="E28" s="1"/>
@@ -1380,8 +2048,20 @@
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q28" s="10">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="R28" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="W28" s="26"/>
+      <c r="X28" s="1"/>
+      <c r="Z28" s="26"/>
+      <c r="AA28" s="1"/>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="E29" s="1"/>
@@ -1393,8 +2073,20 @@
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q29" s="10">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="R29" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="W29" s="26"/>
+      <c r="X29" s="1"/>
+      <c r="Z29" s="26"/>
+      <c r="AA29" s="1"/>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="E30" s="1"/>
@@ -1406,53 +2098,87 @@
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="19"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="19"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="19"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q30" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="R30" s="32"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="W30" s="26"/>
+      <c r="X30" s="1"/>
+      <c r="Z30" s="26"/>
+      <c r="AA30" s="1"/>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="33">
+        <v>208.79</v>
+      </c>
+      <c r="R31" s="33"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="W31" s="26"/>
+      <c r="X31" s="1"/>
+      <c r="Z31" s="26"/>
+      <c r="AA31" s="1"/>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="33">
+        <v>250</v>
+      </c>
+      <c r="R32" s="33"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="W32" s="26"/>
+      <c r="X32" s="1"/>
+      <c r="Z32" s="26"/>
+      <c r="AA32" s="1"/>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="37">
+        <v>245</v>
+      </c>
+      <c r="R33" s="37"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="W33" s="26"/>
+      <c r="X33" s="1"/>
+      <c r="Z33" s="26"/>
+      <c r="AA33" s="1"/>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34" s="19"/>
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
@@ -1467,7 +2193,7 @@
       <c r="L34" s="19"/>
       <c r="M34" s="19"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35" s="19"/>
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
@@ -1482,7 +2208,7 @@
       <c r="L35" s="19"/>
       <c r="M35" s="19"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36" s="19"/>
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
@@ -1497,7 +2223,7 @@
       <c r="L36" s="19"/>
       <c r="M36" s="19"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37" s="19"/>
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
@@ -1512,7 +2238,7 @@
       <c r="L37" s="19"/>
       <c r="M37" s="19"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38" s="19"/>
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
@@ -1527,7 +2253,7 @@
       <c r="L38" s="19"/>
       <c r="M38" s="19"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39" s="19"/>
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
@@ -1542,7 +2268,7 @@
       <c r="L39" s="19"/>
       <c r="M39" s="19"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40" s="19"/>
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
@@ -1557,7 +2283,7 @@
       <c r="L40" s="19"/>
       <c r="M40" s="19"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41" s="19"/>
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
@@ -1572,7 +2298,7 @@
       <c r="L41" s="19"/>
       <c r="M41" s="19"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42" s="19"/>
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
@@ -1587,7 +2313,7 @@
       <c r="L42" s="19"/>
       <c r="M42" s="19"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43" s="19"/>
       <c r="B43" s="19"/>
       <c r="C43" s="19"/>
@@ -1602,7 +2328,7 @@
       <c r="L43" s="19"/>
       <c r="M43" s="19"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44" s="19"/>
       <c r="B44" s="19"/>
       <c r="C44" s="19"/>
@@ -1617,7 +2343,7 @@
       <c r="L44" s="19"/>
       <c r="M44" s="19"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A45" s="19"/>
       <c r="B45" s="19"/>
       <c r="C45" s="19"/>
@@ -1632,7 +2358,7 @@
       <c r="L45" s="19"/>
       <c r="M45" s="19"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A46" s="19"/>
       <c r="B46" s="19"/>
       <c r="C46" s="19"/>
@@ -1647,7 +2373,7 @@
       <c r="L46" s="19"/>
       <c r="M46" s="19"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A47" s="19"/>
       <c r="B47" s="19"/>
       <c r="C47" s="19"/>
@@ -1662,7 +2388,7 @@
       <c r="L47" s="19"/>
       <c r="M47" s="19"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A48" s="19"/>
       <c r="B48" s="19"/>
       <c r="C48" s="19"/>
@@ -6614,20 +7340,42 @@
       <c r="L438" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H19:I19"/>
+  <mergeCells count="80">
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="AF9:AG9"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="AF8:AG8"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="W4:X4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E11:F11"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="E2:F2"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="H2:I2"/>
@@ -6641,24 +7389,365 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N12:O12"/>
     <mergeCell ref="N11:O11"/>
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="N3:O3"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="T4:U4"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58264192-4F30-4880-8014-43FB39659B6B}">
+  <dimension ref="A1:D71"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="23">
+        <v>5000</v>
+      </c>
+      <c r="B2" s="24">
+        <v>6.1</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="23">
+        <v>1000</v>
+      </c>
+      <c r="B3" s="24">
+        <v>7.1</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="23">
+        <v>300</v>
+      </c>
+      <c r="B4" s="24">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="23">
+        <v>3000</v>
+      </c>
+      <c r="B5" s="24">
+        <v>10.1</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="23">
+        <v>100</v>
+      </c>
+      <c r="B6" s="24">
+        <v>11.1</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="23">
+        <v>120</v>
+      </c>
+      <c r="B7" s="31">
+        <v>11.1</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="23">
+        <v>0</v>
+      </c>
+      <c r="B8" s="24">
+        <v>0</v>
+      </c>
+      <c r="C8" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="23">
+        <v>0</v>
+      </c>
+      <c r="B9" s="24">
+        <v>0</v>
+      </c>
+      <c r="C9" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="23">
+        <v>0</v>
+      </c>
+      <c r="B10" s="24">
+        <v>0</v>
+      </c>
+      <c r="C10" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="23">
+        <v>0</v>
+      </c>
+      <c r="B11" s="24">
+        <v>0</v>
+      </c>
+      <c r="C11" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C12" s="20"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C13" s="20"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C14" s="20"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C15" s="20"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C16" s="20"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" s="20"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C18" s="20"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C19" s="20"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C20" s="20"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C21" s="20"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C22" s="20"/>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C23" s="20"/>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C24" s="20"/>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C25" s="20"/>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C26" s="20"/>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C27" s="20"/>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C28" s="20"/>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C29" s="20"/>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C30" s="20"/>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C31" s="20"/>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C32" s="20"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C33" s="20"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C34" s="20"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C35" s="20"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C36" s="20"/>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C37" s="20"/>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C38" s="20"/>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C39" s="20"/>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C40" s="20"/>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C41" s="20"/>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C42" s="20"/>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C43" s="20"/>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C44" s="20"/>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C45" s="20"/>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C46" s="20"/>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C47" s="20"/>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C48" s="20"/>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C49" s="20"/>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C50" s="20"/>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C51" s="20"/>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C52" s="20"/>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C53" s="20"/>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C54" s="20"/>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C55" s="20"/>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C56" s="20"/>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C57" s="20"/>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C58" s="20"/>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C59" s="20"/>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C60" s="20"/>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C61" s="20"/>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C62" s="20"/>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C63" s="20"/>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C64" s="20"/>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C65" s="20"/>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C66" s="20"/>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C67" s="20"/>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C68" s="20"/>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C69" s="20"/>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C70" s="20"/>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C71" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>